--- a/Кирилица.xlsx
+++ b/Кирилица.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.vasilchenko\Documents\PlatformIO\Projects\PPK_v0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1943D88E-1BAA-444B-9EEF-90681CDE5145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC58D01-90A5-4C1A-8D46-8730CAFFD2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CEAC2369-D545-49D7-9BF1-49920FB2BF02}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>А</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Я</t>
+  </si>
+  <si>
+    <t>Х</t>
   </si>
 </sst>
 </file>
@@ -497,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED53A1C2-825F-4D48-BC65-81D29162C167}">
   <dimension ref="B2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,13 +876,13 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1">
         <v>192</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E24" s="1">
         <v>192</v>
